--- a/Dokumente/Organisation/Plan �ber Wochenziele UASJ-Maps.xlsx
+++ b/Dokumente/Organisation/Plan �ber Wochenziele UASJ-Maps.xlsx
@@ -7,40 +7,17 @@
     <workbookView xWindow="555" yWindow="120" windowWidth="13620" windowHeight="8250"/>
   </bookViews>
   <sheets>
-    <sheet name="Pausenplan" sheetId="1" r:id="rId1"/>
+    <sheet name="Wochenpläne" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Pausenplan!$A$1:$H$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Wochenpläne!$A$1:$H$34</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Satisfied Microsoft Office customer</author>
-  </authors>
-  <commentList>
-    <comment ref="F3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Geben Sie das Datum für Montag dieser Woche ein. Das Enddatum wird automatisch angezeigt.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>Name </t>
   </si>
@@ -96,9 +73,6 @@
     <t>Thomas</t>
   </si>
   <si>
-    <t>ab 18.12.11 Ebenen Haus 5 einlesen und überprüfen ob alles richtig eingetragen wurde</t>
-  </si>
-  <si>
     <t>bis 18.12.11 Datenbank: Testen ob Teile von Wörtern erkannt werden und dementsprechend Datenbank anlegen</t>
   </si>
   <si>
@@ -106,6 +80,124 @@
   </si>
   <si>
     <t>Plan über Wochenziele</t>
+  </si>
+  <si>
+    <t>Datenbank to-do:</t>
+  </si>
+  <si>
+    <t>integer einführen</t>
+  </si>
+  <si>
+    <t>Multitouch</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>A1: Pflichtenheft anpassen (Buttons, Textausgabe, Klickstream) 
+A2: SA fertig machen</t>
+  </si>
+  <si>
+    <t>A1: David: Testen ob Buttons auf drehbarem Canvas noch klickbar</t>
+  </si>
+  <si>
+    <t>A1: Ausfühliche Recherche wie werden einzelne Test (Klassentest, Modultests &amp; Integrationstest) konkret umgesetzt
+A2: Erstellung Testprotokoll für Pathfinding
+A3: Erstellung Testprogramm Pathfinding (eventuell automatische Tests, die direkt ins Testprotokoll schreiben)</t>
+  </si>
+  <si>
+    <t>Testprogramm für Datenbank erstellen, was überprüft ob Knoten untereinander verbunden sind (via Nachba-Ids) in beiden Richtungen (Vorschlag von David)</t>
+  </si>
+  <si>
+    <t>ab 18.12.11 Ebenen Haus 5 einlesen und überprüfen ob alles richtig eingetragen wurde - verzögert durch verzögerung in der Datenbankvorstellung</t>
+  </si>
+  <si>
+    <t>noch unbestimmt</t>
+  </si>
+  <si>
+    <t>Teamlegende:</t>
+  </si>
+  <si>
+    <t>GUI: Thomas und Eric, welche für das graphical user interface zuständig sind</t>
+  </si>
+  <si>
+    <t>GO: Eric und Nils welche für die Klasse Graphical Output zuständig sind</t>
+  </si>
+  <si>
+    <t>PM: Laura, Projektmanagement</t>
+  </si>
+  <si>
+    <t>GD: Laura, Grafikdesign</t>
+  </si>
+  <si>
+    <t>A1: Alle ebenen anlegen als Rohformat erstellen  - funktionen einführen drawFloorX() (Z.B. "Haus3 Ebene 2" anzeigen lassen anstatt grafische Darstellung der Ebenen)</t>
+  </si>
+  <si>
+    <t>A1: je nach ergebnissen von David (Ziel2, GUI, A1) Buttons designen oder eben nicht
+A2: genauerer Designentwurf als das was im Pflichtenheft vorhanden ist, Absprache mit Eric</t>
+  </si>
+  <si>
+    <t>A1: restliche Klassentests nach Vorarbeit in Ziel 2 QA vorbereiten, nicht vergessen - absprache mit jeweiligen Klassenverantwortlichen halten</t>
+  </si>
+  <si>
+    <t>A1:Grafik aus Pflichtenheft anpassen an vorgaben von PM und Pfeile einzeichnen, wie Bilder zusammenhängen</t>
+  </si>
+  <si>
+    <t>A1: fiktive Knoten aus dem Prototypen vom Format her auf Datenbank anpassen (Attribute) für Datenbanktest</t>
+  </si>
+  <si>
+    <t>Pathfinding/Nils</t>
+  </si>
+  <si>
+    <t>nicht vergessen Version von UASJ-Maps zu speichern. Bei Problemen bitte unbedingt melden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura </t>
+  </si>
+  <si>
+    <t>Helfen bei GO: Datenbank erstellen, Aufgabenverteilung von Nils erwartet :)</t>
+  </si>
+  <si>
+    <t>A1: Thomas Multitouch, Singletouch (siehe Ziel3 A1 von GO)
+A2: Ansteuerung GO feritg machen (restliche setFloor()-Befehle umsetzen (Häuser auf Campus)
+A3: je nach Ergebnissen von David (Ziel2, GUI, A1) Buttonlistener einführen</t>
+  </si>
+  <si>
+    <t>A1: Problem Singeltouch lösen
+A2: Ebenen von Haus 5 und einem weiteren Haus grafisch darstellen
+A3: Campus grafisch Darstellen mit ergebnissen von David (Ziel2, GUI, A1) 
+A4: in der setFloor() restliche frie Navi umsetzen (Häuser auf Campus)
+A5: überlegen ob Zeichnen von Ebene und Position mit gleicher funktion (z.B. drawRouteOrPosition() ) geschehen soll, nach Davids Vorschlag Die Route mit einem Symbol (z.B. Kreuz) anfangen und enden zu lassen - Absprache mit Laura bitte</t>
+  </si>
+  <si>
+    <t>Farblegende:</t>
+  </si>
+  <si>
+    <t>grün</t>
+  </si>
+  <si>
+    <t>erledigt</t>
+  </si>
+  <si>
+    <t>rot</t>
+  </si>
+  <si>
+    <t>nicht erledigt</t>
+  </si>
+  <si>
+    <t>blau</t>
+  </si>
+  <si>
+    <t>nicht erledigt Aufgrund von Abhängigkeit zu anderen Aufgaben, die nicht erfüllt wurden - wir erledigt sobald andere Aufgaben erledigt</t>
+  </si>
+  <si>
+    <t>QA: Sascha, welcher für die Quality Assurance zuständig ist</t>
   </si>
 </sst>
 </file>
@@ -113,10 +205,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="d\a\t\um\,\ \k\u\r\z"/>
-    <numFmt numFmtId="169" formatCode="\Fes\t"/>
+    <numFmt numFmtId="164" formatCode="d\a\t\um\,\ \k\u\r\z"/>
+    <numFmt numFmtId="165" formatCode="\Fes\t"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -227,8 +319,38 @@
     </font>
     <font>
       <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -288,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -495,38 +617,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="22"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -572,20 +672,20 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -601,7 +701,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -650,42 +750,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="10" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -696,18 +760,87 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1071,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I30"/>
+  <dimension ref="B2:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="13.5"/>
@@ -1086,13 +1219,13 @@
     <col min="5" max="6" width="12.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="45.85546875" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="2" customFormat="1" ht="43.5" customHeight="1">
+    <row r="2" spans="2:15" s="2" customFormat="1" ht="43.5" customHeight="1">
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -1102,10 +1235,14 @@
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="2:9" ht="21" customHeight="1">
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="2:15" ht="21" customHeight="1">
       <c r="B3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
@@ -1122,8 +1259,11 @@
         <v>40934</v>
       </c>
       <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="2:9" ht="17.100000000000001" customHeight="1">
+      <c r="N3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="17.100000000000001" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
@@ -1133,25 +1273,25 @@
       <c r="H4" s="20"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="2:9" ht="15.95" customHeight="1">
+    <row r="5" spans="2:15" ht="15.95" customHeight="1">
       <c r="B5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="46">
         <v>40899</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="58">
+      <c r="F5" s="46">
         <v>40906</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="41"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:9" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="2:15" ht="17.100000000000001" customHeight="1">
       <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
@@ -1162,112 +1302,134 @@
       <c r="E6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="2:9" ht="22.5">
-      <c r="B7" s="60" t="s">
+    <row r="7" spans="2:15" ht="22.5">
+      <c r="B7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="67" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="23"/>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
+      <c r="F7" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B8" s="60" t="s">
+    <row r="8" spans="2:15" ht="60" customHeight="1">
+      <c r="B8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="63"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="2:15" ht="111" customHeight="1">
+      <c r="B9" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="2:15" ht="39" customHeight="1">
+      <c r="B10" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="2:15" ht="50.25" customHeight="1">
+      <c r="B11" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="2:9" ht="22.5">
-      <c r="B9" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="24"/>
-    </row>
-    <row r="10" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B10" s="60" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="63"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="2:15" ht="37.5" customHeight="1">
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="63"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="2:15" ht="39" customHeight="1">
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="2:9" ht="33.75">
-      <c r="B11" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="F13" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="63"/>
+      <c r="H13" s="64"/>
       <c r="I13" s="24"/>
     </row>
-    <row r="14" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
+    <row r="14" spans="2:15" ht="17.100000000000001" customHeight="1">
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="26"/>
       <c r="E14" s="27"/>
       <c r="F14" s="24"/>
@@ -1275,18 +1437,18 @@
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="2:9" s="29" customFormat="1" ht="15.95" customHeight="1">
+    <row r="15" spans="2:15" s="29" customFormat="1" ht="15.95" customHeight="1">
       <c r="B15" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="46">
         <v>40913</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="46">
         <v>40920</v>
       </c>
       <c r="G15" s="42" t="s">
@@ -1294,8 +1456,11 @@
       </c>
       <c r="H15" s="43"/>
       <c r="I15" s="31"/>
-    </row>
-    <row r="16" spans="2:9" ht="17.100000000000001" customHeight="1">
+      <c r="L15" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="17.100000000000001" customHeight="1">
       <c r="B16" s="44" t="s">
         <v>5</v>
       </c>
@@ -1306,173 +1471,281 @@
       <c r="E16" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="51"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="55"/>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B17" s="60" t="s">
+    <row r="17" spans="2:12" ht="78.75">
+      <c r="B17" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="60" t="s">
+      <c r="C17" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="49"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="2:12" ht="146.25">
+      <c r="B18" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" spans="2:12" ht="45">
+      <c r="B19" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="24"/>
+    </row>
+    <row r="20" spans="2:12" ht="56.25">
+      <c r="B20" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" spans="2:12" ht="45">
+      <c r="B21" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="2:12" ht="22.5">
+      <c r="B22" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" spans="2:12" ht="17.100000000000001" customHeight="1">
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+    </row>
+    <row r="24" spans="2:12" s="29" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B24" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="46">
+        <v>40927</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="46">
+        <v>40934</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="43"/>
+      <c r="I24" s="31"/>
+      <c r="L24" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="17.100000000000001" customHeight="1">
+      <c r="B25" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="54"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="25"/>
+    </row>
+    <row r="26" spans="2:12" ht="17.100000000000001" customHeight="1">
+      <c r="B26" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="24"/>
-    </row>
-    <row r="18" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B18" s="60" t="s">
+      <c r="C26" s="38"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="56"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" spans="2:12" ht="17.100000000000001" customHeight="1">
+      <c r="B27" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="60" t="s">
+      <c r="C27" s="37"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="24"/>
-    </row>
-    <row r="19" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B19" s="60" t="s">
+      <c r="F27" s="50"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="24"/>
+    </row>
+    <row r="28" spans="2:12" ht="17.100000000000001" customHeight="1">
+      <c r="B28" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="60" t="s">
+      <c r="C28" s="37"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="24"/>
-    </row>
-    <row r="20" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-    </row>
-    <row r="21" spans="2:9" s="29" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B21" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="58">
-        <v>40927</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="58">
-        <v>40934</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="31"/>
-    </row>
-    <row r="22" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B22" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="25"/>
-    </row>
-    <row r="23" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B23" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="24"/>
-    </row>
-    <row r="24" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B24" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B25" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="24"/>
-    </row>
-    <row r="26" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B26" s="24"/>
-    </row>
-    <row r="27" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B27" s="24"/>
-    </row>
-    <row r="28" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B28" s="24"/>
-    </row>
-    <row r="29" spans="2:9" ht="17.100000000000001" customHeight="1">
+      <c r="F28" s="50"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B29" s="24"/>
     </row>
-    <row r="30" spans="2:9" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B30" s="24"/>
     </row>
+    <row r="31" spans="2:12" ht="17.100000000000001" customHeight="1">
+      <c r="B31" s="24"/>
+    </row>
+    <row r="32" spans="2:12" ht="17.100000000000001" customHeight="1">
+      <c r="B32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="17.100000000000001" customHeight="1">
+      <c r="B33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="74"/>
+      <c r="I33" s="75"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="76"/>
+      <c r="I34" s="75"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="77"/>
+      <c r="I35" s="78"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="70" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="67.5">
+      <c r="B42" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="73" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F25:H25"/>
     <mergeCell ref="F19:H19"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1482,6 +1755,5 @@
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Dokumente/Organisation/Plan �ber Wochenziele UASJ-Maps.xlsx
+++ b/Dokumente/Organisation/Plan �ber Wochenziele UASJ-Maps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>Name </t>
   </si>
@@ -80,12 +80,6 @@
   </si>
   <si>
     <t>Plan über Wochenziele</t>
-  </si>
-  <si>
-    <t>Datenbank to-do:</t>
-  </si>
-  <si>
-    <t>integer einführen</t>
   </si>
   <si>
     <t>Multitouch</t>
@@ -112,19 +106,10 @@
 A3: Erstellung Testprogramm Pathfinding (eventuell automatische Tests, die direkt ins Testprotokoll schreiben)</t>
   </si>
   <si>
-    <t>Testprogramm für Datenbank erstellen, was überprüft ob Knoten untereinander verbunden sind (via Nachba-Ids) in beiden Richtungen (Vorschlag von David)</t>
-  </si>
-  <si>
     <t>ab 18.12.11 Ebenen Haus 5 einlesen und überprüfen ob alles richtig eingetragen wurde - verzögert durch verzögerung in der Datenbankvorstellung</t>
   </si>
   <si>
-    <t>noch unbestimmt</t>
-  </si>
-  <si>
     <t>Teamlegende:</t>
-  </si>
-  <si>
-    <t>GUI: Thomas und Eric, welche für das graphical user interface zuständig sind</t>
   </si>
   <si>
     <t>GO: Eric und Nils welche für die Klasse Graphical Output zuständig sind</t>
@@ -194,10 +179,19 @@
     <t>blau</t>
   </si>
   <si>
-    <t>nicht erledigt Aufgrund von Abhängigkeit zu anderen Aufgaben, die nicht erfüllt wurden - wir erledigt sobald andere Aufgaben erledigt</t>
-  </si>
-  <si>
     <t>QA: Sascha, welcher für die Quality Assurance zuständig ist</t>
+  </si>
+  <si>
+    <t>nicht erledigt Aufgrund von Abhängigkeit zu anderen Aufgaben, die nicht erfüllt wurden - wird erledigt sobald andere Aufgaben erledigt</t>
+  </si>
+  <si>
+    <t>Testprogramm für Datenbank erstellen, was überprüft ob Knoten untereinander verbunden sind (via Nachbar-Ids) in beiden Richtungen (Vorschlag von David)</t>
+  </si>
+  <si>
+    <t>GUI: Thomas und David, welche für das Graphical User Interface zuständig sind</t>
+  </si>
+  <si>
+    <t>noch unbestimmt (wird zeitnah geklärt, wer das machen soll)</t>
   </si>
 </sst>
 </file>
@@ -634,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -764,51 +758,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -841,6 +790,54 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1204,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:O42"/>
+  <dimension ref="B2:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="13.5"/>
@@ -1223,7 +1220,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" s="2" customFormat="1" ht="43.5" customHeight="1">
+    <row r="2" spans="2:14" s="2" customFormat="1" ht="43.5" customHeight="1">
       <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
@@ -1235,12 +1232,9 @@
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="3"/>
-      <c r="N2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="2:15" ht="21" customHeight="1">
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" ht="21" customHeight="1">
       <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
@@ -1259,11 +1253,8 @@
         <v>40934</v>
       </c>
       <c r="I3" s="15"/>
-      <c r="N3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="17.100000000000001" customHeight="1">
+    </row>
+    <row r="4" spans="2:14" ht="17.100000000000001" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
@@ -1273,7 +1264,7 @@
       <c r="H4" s="20"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="2:15" ht="15.95" customHeight="1">
+    <row r="5" spans="2:14" ht="15.95" customHeight="1">
       <c r="B5" s="39" t="s">
         <v>3</v>
       </c>
@@ -1291,7 +1282,7 @@
       <c r="H5" s="41"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:15" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="2:14" ht="17.100000000000001" customHeight="1">
       <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
@@ -1302,132 +1293,132 @@
       <c r="E6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="2:15" ht="22.5">
+    <row r="7" spans="2:14" ht="22.5">
       <c r="B7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
+      <c r="F7" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="74"/>
+      <c r="H7" s="75"/>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="2:15" ht="60" customHeight="1">
+    <row r="8" spans="2:14" ht="60" customHeight="1">
       <c r="B8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="68" t="s">
-        <v>31</v>
+      <c r="C8" s="53" t="s">
+        <v>28</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="64"/>
+      <c r="F8" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="74"/>
+      <c r="H8" s="75"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="2:15" ht="111" customHeight="1">
+    <row r="9" spans="2:14" ht="111" customHeight="1">
       <c r="B9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="51" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64"/>
+      <c r="F9" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="74"/>
+      <c r="H9" s="75"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="2:15" ht="39" customHeight="1">
+    <row r="10" spans="2:14" ht="39" customHeight="1">
       <c r="B10" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="51" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="75"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="2:15" ht="50.25" customHeight="1">
+    <row r="11" spans="2:14" ht="50.25" customHeight="1">
       <c r="B11" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="52" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="64"/>
+        <v>24</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="74"/>
+      <c r="H11" s="75"/>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="2:15" ht="37.5" customHeight="1">
+    <row r="12" spans="2:14" ht="37.5" customHeight="1">
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
       <c r="D12" s="26"/>
       <c r="E12" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="64"/>
+        <v>38</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="74"/>
+      <c r="H12" s="75"/>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="2:15" ht="39" customHeight="1">
+    <row r="13" spans="2:14" ht="39" customHeight="1">
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
       <c r="D13" s="26"/>
       <c r="E13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="64"/>
+      <c r="F13" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="74"/>
+      <c r="H13" s="75"/>
       <c r="I13" s="24"/>
     </row>
-    <row r="14" spans="2:15" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="2:14" ht="17.100000000000001" customHeight="1">
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
       <c r="D14" s="26"/>
@@ -1437,7 +1428,7 @@
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="2:15" s="29" customFormat="1" ht="15.95" customHeight="1">
+    <row r="15" spans="2:14" s="29" customFormat="1" ht="15.95" customHeight="1">
       <c r="B15" s="39" t="s">
         <v>3</v>
       </c>
@@ -1457,10 +1448,10 @@
       <c r="H15" s="43"/>
       <c r="I15" s="31"/>
       <c r="L15" s="29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" ht="17.100000000000001" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="17.100000000000001" customHeight="1">
       <c r="B16" s="44" t="s">
         <v>5</v>
       </c>
@@ -1471,11 +1462,11 @@
       <c r="E16" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="55"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69"/>
       <c r="I16" s="25"/>
     </row>
     <row r="17" spans="2:12" ht="78.75">
@@ -1483,13 +1474,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="48"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="58"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="72"/>
       <c r="I17" s="24"/>
     </row>
     <row r="18" spans="2:12" ht="146.25">
@@ -1497,13 +1488,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="48"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
       <c r="I18" s="24"/>
     </row>
     <row r="19" spans="2:12" ht="45">
@@ -1511,55 +1502,55 @@
         <v>8</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="48"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="52"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
       <c r="I19" s="24"/>
     </row>
     <row r="20" spans="2:12" ht="56.25">
       <c r="B20" s="48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
       <c r="I20" s="24"/>
     </row>
     <row r="21" spans="2:12" ht="45">
-      <c r="B21" s="48" t="s">
-        <v>32</v>
+      <c r="B21" s="79" t="s">
+        <v>54</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="2:12" ht="22.5">
       <c r="B22" s="48" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D22" s="49"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
       <c r="I22" s="24"/>
     </row>
     <row r="23" spans="2:12" ht="17.100000000000001" customHeight="1">
@@ -1592,7 +1583,7 @@
       <c r="H24" s="43"/>
       <c r="I24" s="31"/>
       <c r="L24" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="17.100000000000001" customHeight="1">
@@ -1606,11 +1597,11 @@
       <c r="E25" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="53" t="s">
+      <c r="F25" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:12" ht="17.100000000000001" customHeight="1">
@@ -1622,9 +1613,9 @@
       <c r="E26" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="58"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="72"/>
       <c r="I26" s="24"/>
     </row>
     <row r="27" spans="2:12" ht="17.100000000000001" customHeight="1">
@@ -1636,9 +1627,9 @@
       <c r="E27" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="50"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="52"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="66"/>
       <c r="I27" s="24"/>
     </row>
     <row r="28" spans="2:12" ht="17.100000000000001" customHeight="1">
@@ -1650,9 +1641,9 @@
       <c r="E28" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="50"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="52"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
       <c r="I28" s="24"/>
     </row>
     <row r="29" spans="2:12" ht="17.100000000000001" customHeight="1">
@@ -1666,67 +1657,67 @@
     </row>
     <row r="32" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="17.100000000000001" customHeight="1">
       <c r="B33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="74"/>
-      <c r="I33" s="75"/>
+        <v>53</v>
+      </c>
+      <c r="H33" s="59"/>
+      <c r="I33" s="60"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" s="76"/>
-      <c r="I34" s="75"/>
+        <v>30</v>
+      </c>
+      <c r="H34" s="61"/>
+      <c r="I34" s="60"/>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="77"/>
-      <c r="I35" s="78"/>
+        <v>50</v>
+      </c>
+      <c r="H35" s="62"/>
+      <c r="I35" s="63"/>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="67.5">
+      <c r="B42" s="57" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="70" t="s">
+      <c r="C42" s="58" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="70" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="67.5">
-      <c r="B42" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="73" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Organisation/Plan �ber Wochenziele UASJ-Maps.xlsx
+++ b/Dokumente/Organisation/Plan �ber Wochenziele UASJ-Maps.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="120" windowWidth="13620" windowHeight="8250"/>
+    <workbookView xWindow="552" yWindow="120" windowWidth="13620" windowHeight="8256"/>
   </bookViews>
   <sheets>
     <sheet name="Wochenpläne" sheetId="1" r:id="rId1"/>
@@ -154,55 +154,75 @@
 A3: je nach Ergebnissen von David (Ziel2, GUI, A1) Buttonlistener einführen</t>
   </si>
   <si>
-    <t>A1: Problem Singeltouch lösen
+    <t>Farblegende:</t>
+  </si>
+  <si>
+    <t>grün</t>
+  </si>
+  <si>
+    <t>erledigt</t>
+  </si>
+  <si>
+    <t>rot</t>
+  </si>
+  <si>
+    <t>nicht erledigt</t>
+  </si>
+  <si>
+    <t>blau</t>
+  </si>
+  <si>
+    <t>QA: Sascha, welcher für die Quality Assurance zuständig ist</t>
+  </si>
+  <si>
+    <t>nicht erledigt Aufgrund von Abhängigkeit zu anderen Aufgaben, die nicht erfüllt wurden - wird erledigt sobald andere Aufgaben erledigt</t>
+  </si>
+  <si>
+    <t>Testprogramm für Datenbank erstellen, was überprüft ob Knoten untereinander verbunden sind (via Nachbar-Ids) in beiden Richtungen (Vorschlag von David)</t>
+  </si>
+  <si>
+    <t>GUI: Thomas und David, welche für das Graphical User Interface zuständig sind</t>
+  </si>
+  <si>
+    <t>noch unbestimmt (wird zeitnah geklärt, wer das machen soll)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A1: Problem Singeltouch lösen
 A2: Ebenen von Haus 5 und einem weiteren Haus grafisch darstellen
 A3: Campus grafisch Darstellen mit ergebnissen von David (Ziel2, GUI, A1) 
-A4: in der setFloor() restliche frie Navi umsetzen (Häuser auf Campus)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A4: in der setFloor() restliche frie Navi umsetzen (Häuser auf Campus)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
 A5: überlegen ob Zeichnen von Ebene und Position mit gleicher funktion (z.B. drawRouteOrPosition() ) geschehen soll, nach Davids Vorschlag Die Route mit einem Symbol (z.B. Kreuz) anfangen und enden zu lassen - Absprache mit Laura bitte</t>
-  </si>
-  <si>
-    <t>Farblegende:</t>
-  </si>
-  <si>
-    <t>grün</t>
-  </si>
-  <si>
-    <t>erledigt</t>
-  </si>
-  <si>
-    <t>rot</t>
-  </si>
-  <si>
-    <t>nicht erledigt</t>
-  </si>
-  <si>
-    <t>blau</t>
-  </si>
-  <si>
-    <t>QA: Sascha, welcher für die Quality Assurance zuständig ist</t>
-  </si>
-  <si>
-    <t>nicht erledigt Aufgrund von Abhängigkeit zu anderen Aufgaben, die nicht erfüllt wurden - wird erledigt sobald andere Aufgaben erledigt</t>
-  </si>
-  <si>
-    <t>Testprogramm für Datenbank erstellen, was überprüft ob Knoten untereinander verbunden sind (via Nachbar-Ids) in beiden Richtungen (Vorschlag von David)</t>
-  </si>
-  <si>
-    <t>GUI: Thomas und David, welche für das Graphical User Interface zuständig sind</t>
-  </si>
-  <si>
-    <t>noch unbestimmt (wird zeitnah geklärt, wer das machen soll)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\a\t\um\,\ \k\u\r\z"/>
     <numFmt numFmtId="165" formatCode="\Fes\t"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -345,6 +365,12 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -628,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -791,6 +817,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -818,26 +865,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,11 +942,16 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -991,6 +1025,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1025,6 +1060,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -1200,27 +1236,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="45.85546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="45.88671875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" s="2" customFormat="1" ht="43.5" customHeight="1">
+    <row r="2" spans="2:14" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
@@ -1234,7 +1270,7 @@
       <c r="H2" s="3"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" ht="21" customHeight="1">
+    <row r="3" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
@@ -1254,7 +1290,7 @@
       </c>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="2:14" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
@@ -1264,7 +1300,7 @@
       <c r="H4" s="20"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="2:14" ht="15.95" customHeight="1">
+    <row r="5" spans="2:14" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="39" t="s">
         <v>3</v>
       </c>
@@ -1282,7 +1318,7 @@
       <c r="H5" s="41"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:14" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
@@ -1293,14 +1329,14 @@
       <c r="E6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="77"/>
-      <c r="H6" s="78"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="70"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="2:14" ht="22.5">
+    <row r="7" spans="2:14" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="B7" s="48" t="s">
         <v>6</v>
       </c>
@@ -1311,14 +1347,14 @@
       <c r="E7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="67"/>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="2:14" ht="60" customHeight="1">
+    <row r="8" spans="2:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="48" t="s">
         <v>7</v>
       </c>
@@ -1329,14 +1365,14 @@
       <c r="E8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="F8" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="74"/>
-      <c r="H8" s="75"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="2:14" ht="111" customHeight="1">
+    <row r="9" spans="2:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="48" t="s">
         <v>8</v>
       </c>
@@ -1347,14 +1383,14 @@
       <c r="E9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="74"/>
-      <c r="H9" s="75"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="2:14" ht="39" customHeight="1">
+    <row r="10" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="48" t="s">
         <v>15</v>
       </c>
@@ -1365,14 +1401,14 @@
       <c r="E10" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="74"/>
-      <c r="H10" s="75"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="2:14" ht="50.25" customHeight="1">
+    <row r="11" spans="2:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="48" t="s">
         <v>17</v>
       </c>
@@ -1383,42 +1419,42 @@
       <c r="E11" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="2:14" ht="37.5" customHeight="1">
+    <row r="12" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
       <c r="D12" s="26"/>
       <c r="E12" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="74"/>
-      <c r="H12" s="75"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="2:14" ht="39" customHeight="1">
+    <row r="13" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
       <c r="D13" s="26"/>
       <c r="E13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="74"/>
-      <c r="H13" s="75"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="24"/>
     </row>
-    <row r="14" spans="2:14" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
       <c r="D14" s="26"/>
@@ -1428,7 +1464,7 @@
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="2:14" s="29" customFormat="1" ht="15.95" customHeight="1">
+    <row r="15" spans="2:14" s="29" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="39" t="s">
         <v>3</v>
       </c>
@@ -1451,7 +1487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="44" t="s">
         <v>5</v>
       </c>
@@ -1462,14 +1498,14 @@
       <c r="E16" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="67" t="s">
+      <c r="F16" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="2:12" ht="78.75">
+    <row r="17" spans="2:12" ht="71.400000000000006" x14ac:dyDescent="0.25">
       <c r="B17" s="48" t="s">
         <v>6</v>
       </c>
@@ -1478,26 +1514,26 @@
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="48"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="72"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="79"/>
       <c r="I17" s="24"/>
     </row>
-    <row r="18" spans="2:12" ht="146.25">
+    <row r="18" spans="2:12" ht="132.6" x14ac:dyDescent="0.25">
       <c r="B18" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="48"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
       <c r="I18" s="24"/>
     </row>
-    <row r="19" spans="2:12" ht="45">
+    <row r="19" spans="2:12" ht="30.6" x14ac:dyDescent="0.25">
       <c r="B19" s="48" t="s">
         <v>8</v>
       </c>
@@ -1506,12 +1542,12 @@
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="48"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="66"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="73"/>
       <c r="I19" s="24"/>
     </row>
-    <row r="20" spans="2:12" ht="56.25">
+    <row r="20" spans="2:12" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="B20" s="48" t="s">
         <v>24</v>
       </c>
@@ -1525,12 +1561,12 @@
       <c r="H20" s="50"/>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="2:12" ht="45">
-      <c r="B21" s="79" t="s">
-        <v>54</v>
+    <row r="21" spans="2:12" ht="40.799999999999997" x14ac:dyDescent="0.25">
+      <c r="B21" s="64" t="s">
+        <v>53</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
@@ -1539,7 +1575,7 @@
       <c r="H21" s="50"/>
       <c r="I21" s="24"/>
     </row>
-    <row r="22" spans="2:12" ht="22.5">
+    <row r="22" spans="2:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="B22" s="48" t="s">
         <v>40</v>
       </c>
@@ -1553,7 +1589,7 @@
       <c r="H22" s="50"/>
       <c r="I22" s="24"/>
     </row>
-    <row r="23" spans="2:12" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
       <c r="D23" s="26"/>
@@ -1563,7 +1599,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
     </row>
-    <row r="24" spans="2:12" s="29" customFormat="1" ht="15.95" customHeight="1">
+    <row r="24" spans="2:12" s="29" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="39" t="s">
         <v>3</v>
       </c>
@@ -1586,7 +1622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="44" t="s">
         <v>5</v>
       </c>
@@ -1597,14 +1633,14 @@
       <c r="E25" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="67" t="s">
+      <c r="F25" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="68"/>
-      <c r="H25" s="69"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="76"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="2:12" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="48" t="s">
         <v>6</v>
       </c>
@@ -1613,12 +1649,12 @@
       <c r="E26" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="70"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="72"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="79"/>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="2:12" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="48" t="s">
         <v>7</v>
       </c>
@@ -1627,12 +1663,12 @@
       <c r="E27" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="64"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="66"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="73"/>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="2:12" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="48" t="s">
         <v>8</v>
       </c>
@@ -1641,87 +1677,95 @@
       <c r="E28" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="64"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="66"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="73"/>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="2:12" ht="17.100000000000001" customHeight="1">
+    <row r="29" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24"/>
     </row>
-    <row r="30" spans="2:12" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="24"/>
     </row>
-    <row r="31" spans="2:12" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="24"/>
     </row>
-    <row r="32" spans="2:12" ht="17.100000000000001" customHeight="1">
+    <row r="32" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="17.100000000000001" customHeight="1">
+    <row r="33" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H33" s="59"/>
       <c r="I33" s="60"/>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H34" s="61"/>
       <c r="I34" s="60"/>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H35" s="62"/>
       <c r="I35" s="63"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="54" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="54" t="s">
+      <c r="C40" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="55" t="s">
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="56" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="56" t="s">
+      <c r="C41" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="55" t="s">
+    </row>
+    <row r="42" spans="2:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="B42" s="57" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" ht="67.5">
-      <c r="B42" s="57" t="s">
-        <v>49</v>
-      </c>
       <c r="C42" s="58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F19:H19"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
@@ -1730,14 +1774,6 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F19:H19"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">

--- a/Dokumente/Organisation/Plan �ber Wochenziele UASJ-Maps.xlsx
+++ b/Dokumente/Organisation/Plan �ber Wochenziele UASJ-Maps.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="552" yWindow="120" windowWidth="13620" windowHeight="8256"/>
+    <workbookView xWindow="555" yWindow="120" windowWidth="13620" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Wochenpläne" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>David</author>
+  </authors>
+  <commentList>
+    <comment ref="F7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nein, das ist nicht möglich.
+Weiteres Vorgehen siehe Ziel3 -&gt; GUI -&gt; A3</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
@@ -147,11 +182,6 @@
   </si>
   <si>
     <t>Helfen bei GO: Datenbank erstellen, Aufgabenverteilung von Nils erwartet :)</t>
-  </si>
-  <si>
-    <t>A1: Thomas Multitouch, Singletouch (siehe Ziel3 A1 von GO)
-A2: Ansteuerung GO feritg machen (restliche setFloor()-Befehle umsetzen (Häuser auf Campus)
-A3: je nach Ergebnissen von David (Ziel2, GUI, A1) Buttonlistener einführen</t>
   </si>
   <si>
     <t>Farblegende:</t>
@@ -213,16 +243,22 @@
 A5: überlegen ob Zeichnen von Ebene und Position mit gleicher funktion (z.B. drawRouteOrPosition() ) geschehen soll, nach Davids Vorschlag Die Route mit einem Symbol (z.B. Kreuz) anfangen und enden zu lassen - Absprache mit Laura bitte</t>
     </r>
   </si>
+  <si>
+    <t>A1: Thomas Multitouch, Singletouch (siehe Ziel3 A1 von GO)
+A2: Ansteuerung GO feritg machen (restliche setFloor()-Befehle umsetzen (Häuser auf Campus)
+A3: David: Singletouch für Campusdarstellung erstellen: Wo wurde gedrückt?
+A4: Menüführung fertig machen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\a\t\um\,\ \k\u\r\z"/>
     <numFmt numFmtId="165" formatCode="\Fes\t"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -371,6 +407,19 @@
       <sz val="9"/>
       <color rgb="FF00B050"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -654,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -821,6 +870,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -838,34 +914,13 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -951,7 +1006,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -1025,7 +1080,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1060,7 +1114,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -1236,27 +1289,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="45.88671875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="45.85546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14" s="2" customFormat="1" ht="43.5" customHeight="1">
       <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
@@ -1270,7 +1323,7 @@
       <c r="H2" s="3"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" ht="21" customHeight="1">
       <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
@@ -1290,7 +1343,7 @@
       </c>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" ht="17.100000000000001" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
@@ -1300,7 +1353,7 @@
       <c r="H4" s="20"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="2:14" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" ht="15.95" customHeight="1">
       <c r="B5" s="39" t="s">
         <v>3</v>
       </c>
@@ -1318,7 +1371,7 @@
       <c r="H5" s="41"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="17.100000000000001" customHeight="1">
       <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
@@ -1329,14 +1382,14 @@
       <c r="E6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="2:14" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="22.5">
       <c r="B7" s="48" t="s">
         <v>6</v>
       </c>
@@ -1347,14 +1400,14 @@
       <c r="E7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="67"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="2:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="60" customHeight="1">
       <c r="B8" s="48" t="s">
         <v>7</v>
       </c>
@@ -1368,11 +1421,11 @@
       <c r="F8" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="76"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="2:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="111" customHeight="1">
       <c r="B9" s="48" t="s">
         <v>8</v>
       </c>
@@ -1383,14 +1436,14 @@
       <c r="E9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="39" customHeight="1">
       <c r="B10" s="48" t="s">
         <v>15</v>
       </c>
@@ -1401,14 +1454,14 @@
       <c r="E10" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="2:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="50.25" customHeight="1">
       <c r="B11" s="48" t="s">
         <v>17</v>
       </c>
@@ -1419,42 +1472,42 @@
       <c r="E11" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="37.5" customHeight="1">
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
       <c r="D12" s="26"/>
       <c r="E12" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="39" customHeight="1">
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
       <c r="D13" s="26"/>
       <c r="E13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="24"/>
     </row>
-    <row r="14" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" ht="17.100000000000001" customHeight="1">
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
       <c r="D14" s="26"/>
@@ -1464,7 +1517,7 @@
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="2:14" s="29" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" s="29" customFormat="1" ht="15.95" customHeight="1">
       <c r="B15" s="39" t="s">
         <v>3</v>
       </c>
@@ -1487,7 +1540,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="17.100000000000001" customHeight="1">
       <c r="B16" s="44" t="s">
         <v>5</v>
       </c>
@@ -1498,42 +1551,42 @@
       <c r="E16" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="70"/>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="2:12" ht="71.400000000000006" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="101.25">
       <c r="B17" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="48"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="79"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
       <c r="I17" s="24"/>
     </row>
-    <row r="18" spans="2:12" ht="132.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="146.25">
       <c r="B18" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="48"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="73"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
       <c r="I18" s="24"/>
     </row>
-    <row r="19" spans="2:12" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="45">
       <c r="B19" s="48" t="s">
         <v>8</v>
       </c>
@@ -1542,12 +1595,12 @@
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="48"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="73"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="67"/>
       <c r="I19" s="24"/>
     </row>
-    <row r="20" spans="2:12" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="56.25">
       <c r="B20" s="48" t="s">
         <v>24</v>
       </c>
@@ -1561,12 +1614,12 @@
       <c r="H20" s="50"/>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="2:12" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="45">
       <c r="B21" s="64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
@@ -1575,7 +1628,7 @@
       <c r="H21" s="50"/>
       <c r="I21" s="24"/>
     </row>
-    <row r="22" spans="2:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="22.5">
       <c r="B22" s="48" t="s">
         <v>40</v>
       </c>
@@ -1589,7 +1642,7 @@
       <c r="H22" s="50"/>
       <c r="I22" s="24"/>
     </row>
-    <row r="23" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
       <c r="D23" s="26"/>
@@ -1599,7 +1652,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
     </row>
-    <row r="24" spans="2:12" s="29" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" s="29" customFormat="1" ht="15.95" customHeight="1">
       <c r="B24" s="39" t="s">
         <v>3</v>
       </c>
@@ -1622,7 +1675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B25" s="44" t="s">
         <v>5</v>
       </c>
@@ -1633,14 +1686,14 @@
       <c r="E25" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="74" t="s">
+      <c r="F25" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="75"/>
-      <c r="H25" s="76"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B26" s="48" t="s">
         <v>6</v>
       </c>
@@ -1649,12 +1702,12 @@
       <c r="E26" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="77"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="79"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="73"/>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B27" s="48" t="s">
         <v>7</v>
       </c>
@@ -1663,12 +1716,12 @@
       <c r="E27" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="73"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B28" s="48" t="s">
         <v>8</v>
       </c>
@@ -1677,87 +1730,95 @@
       <c r="E28" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="71"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="73"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B29" s="24"/>
     </row>
-    <row r="30" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B30" s="24"/>
     </row>
-    <row r="31" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B31" s="24"/>
     </row>
-    <row r="32" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="17.100000000000001" customHeight="1">
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H33" s="59"/>
       <c r="I33" s="60"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9">
       <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H34" s="61"/>
       <c r="I34" s="60"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9">
       <c r="B35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H35" s="62"/>
       <c r="I35" s="63"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9">
       <c r="B36" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9">
       <c r="B37" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9">
       <c r="B39" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="54" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="54" t="s">
+      <c r="C40" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="55" t="s">
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="56" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="56" t="s">
+      <c r="C41" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="55" t="s">
+    </row>
+    <row r="42" spans="2:9" ht="67.5">
+      <c r="B42" s="57" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="B42" s="57" t="s">
-        <v>48</v>
-      </c>
       <c r="C42" s="58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="F16:H16"/>
@@ -1766,14 +1827,6 @@
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -1782,5 +1835,6 @@
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Dokumente/Organisation/Plan �ber Wochenziele UASJ-Maps.xlsx
+++ b/Dokumente/Organisation/Plan �ber Wochenziele UASJ-Maps.xlsx
@@ -136,11 +136,6 @@
     <t>A1: David: Testen ob Buttons auf drehbarem Canvas noch klickbar</t>
   </si>
   <si>
-    <t>A1: Ausfühliche Recherche wie werden einzelne Test (Klassentest, Modultests &amp; Integrationstest) konkret umgesetzt
-A2: Erstellung Testprotokoll für Pathfinding
-A3: Erstellung Testprogramm Pathfinding (eventuell automatische Tests, die direkt ins Testprotokoll schreiben)</t>
-  </si>
-  <si>
     <t>ab 18.12.11 Ebenen Haus 5 einlesen und überprüfen ob alles richtig eingetragen wurde - verzögert durch verzögerung in der Datenbankvorstellung</t>
   </si>
   <si>
@@ -248,6 +243,28 @@
 A2: Ansteuerung GO feritg machen (restliche setFloor()-Befehle umsetzen (Häuser auf Campus)
 A3: David: Singletouch für Campusdarstellung erstellen: Wo wurde gedrückt?
 A4: Menüführung fertig machen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A1: Ausfühliche Recherche wie werden einzelne Test (Klassentest, Modultests &amp; Integrationstest) konkret umgesetzt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+A2: Erstellung Testprotokoll für Pathfinding
+A3: Erstellung Testprogramm Pathfinding (eventuell automatische Tests, die direkt ins Testprotokoll schreiben)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -870,6 +887,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -895,33 +939,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1293,7 +1310,7 @@
   <dimension ref="B2:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:H7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="13.5"/>
@@ -1382,11 +1399,11 @@
       <c r="E6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="77" t="s">
+      <c r="F6" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="70"/>
       <c r="I6" s="22"/>
     </row>
     <row r="7" spans="2:14" ht="22.5">
@@ -1400,11 +1417,11 @@
       <c r="E7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="82"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="2:14" ht="60" customHeight="1">
@@ -1412,17 +1429,17 @@
         <v>7</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="76"/>
+      <c r="F8" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67"/>
       <c r="I8" s="24"/>
     </row>
     <row r="9" spans="2:14" ht="111" customHeight="1">
@@ -1436,29 +1453,29 @@
       <c r="E9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="75"/>
-      <c r="H9" s="76"/>
+      <c r="F9" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
       <c r="I9" s="24"/>
     </row>
     <row r="10" spans="2:14" ht="39" customHeight="1">
       <c r="B10" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="74" t="s">
+      <c r="F10" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="73"/>
       <c r="I10" s="24"/>
     </row>
     <row r="11" spans="2:14" ht="50.25" customHeight="1">
@@ -1472,11 +1489,11 @@
       <c r="E11" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="F11" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="72"/>
+      <c r="H11" s="73"/>
       <c r="I11" s="24"/>
     </row>
     <row r="12" spans="2:14" ht="37.5" customHeight="1">
@@ -1484,13 +1501,13 @@
       <c r="C12" s="49"/>
       <c r="D12" s="26"/>
       <c r="E12" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="75"/>
-      <c r="H12" s="76"/>
+      <c r="F12" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
       <c r="I12" s="24"/>
     </row>
     <row r="13" spans="2:14" ht="39" customHeight="1">
@@ -1500,11 +1517,11 @@
       <c r="E13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="76"/>
+      <c r="F13" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="24"/>
     </row>
     <row r="14" spans="2:14" ht="17.100000000000001" customHeight="1">
@@ -1551,11 +1568,11 @@
       <c r="E16" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="69"/>
-      <c r="H16" s="70"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="79"/>
       <c r="I16" s="25"/>
     </row>
     <row r="17" spans="2:12" ht="101.25">
@@ -1563,13 +1580,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="48"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="73"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="82"/>
       <c r="I17" s="24"/>
     </row>
     <row r="18" spans="2:12" ht="146.25">
@@ -1577,13 +1594,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="48"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="24"/>
     </row>
     <row r="19" spans="2:12" ht="45">
@@ -1591,13 +1608,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="48"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="76"/>
       <c r="I19" s="24"/>
     </row>
     <row r="20" spans="2:12" ht="56.25">
@@ -1605,7 +1622,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
@@ -1616,10 +1633,10 @@
     </row>
     <row r="21" spans="2:12" ht="45">
       <c r="B21" s="64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
@@ -1630,10 +1647,10 @@
     </row>
     <row r="22" spans="2:12" ht="22.5">
       <c r="B22" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="47" t="s">
         <v>40</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>41</v>
       </c>
       <c r="D22" s="49"/>
       <c r="E22" s="49"/>
@@ -1686,11 +1703,11 @@
       <c r="E25" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="69"/>
-      <c r="H25" s="70"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="79"/>
       <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:12" ht="17.100000000000001" customHeight="1">
@@ -1702,9 +1719,9 @@
       <c r="E26" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="73"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="82"/>
       <c r="I26" s="24"/>
     </row>
     <row r="27" spans="2:12" ht="17.100000000000001" customHeight="1">
@@ -1716,9 +1733,9 @@
       <c r="E27" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="65"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="67"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="76"/>
       <c r="I27" s="24"/>
     </row>
     <row r="28" spans="2:12" ht="17.100000000000001" customHeight="1">
@@ -1730,9 +1747,9 @@
       <c r="E28" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="65"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="67"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="24"/>
     </row>
     <row r="29" spans="2:12" ht="17.100000000000001" customHeight="1">
@@ -1746,71 +1763,79 @@
     </row>
     <row r="32" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="17.100000000000001" customHeight="1">
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H33" s="59"/>
       <c r="I33" s="60"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H34" s="61"/>
       <c r="I34" s="60"/>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H35" s="62"/>
       <c r="I35" s="63"/>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="55" t="s">
         <v>43</v>
-      </c>
-      <c r="C40" s="55" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="55" t="s">
         <v>45</v>
-      </c>
-      <c r="C41" s="55" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="67.5">
       <c r="B42" s="57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F19:H19"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
@@ -1819,14 +1844,6 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F19:H19"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">

--- a/Dokumente/Organisation/Plan �ber Wochenziele UASJ-Maps.xlsx
+++ b/Dokumente/Organisation/Plan �ber Wochenziele UASJ-Maps.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="120" windowWidth="13620" windowHeight="8250"/>
+    <workbookView xWindow="552" yWindow="120" windowWidth="13620" windowHeight="8256"/>
   </bookViews>
   <sheets>
     <sheet name="Wochenpläne" sheetId="1" r:id="rId1"/>
@@ -270,12 +270,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\a\t\um\,\ \k\u\r\z"/>
     <numFmt numFmtId="165" formatCode="\Fes\t"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -887,6 +887,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -903,42 +939,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,7 +1023,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -1097,6 +1097,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1131,6 +1132,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -1306,27 +1308,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="45.85546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="45.88671875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" s="2" customFormat="1" ht="43.5" customHeight="1">
+    <row r="2" spans="2:14" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
@@ -1340,7 +1342,7 @@
       <c r="H2" s="3"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" ht="21" customHeight="1">
+    <row r="3" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
@@ -1360,7 +1362,7 @@
       </c>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="2:14" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
@@ -1370,7 +1372,7 @@
       <c r="H4" s="20"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="2:14" ht="15.95" customHeight="1">
+    <row r="5" spans="2:14" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="39" t="s">
         <v>3</v>
       </c>
@@ -1388,7 +1390,7 @@
       <c r="H5" s="41"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:14" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
@@ -1399,14 +1401,14 @@
       <c r="E6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="2:14" ht="22.5">
+    <row r="7" spans="2:14" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="B7" s="48" t="s">
         <v>6</v>
       </c>
@@ -1417,14 +1419,14 @@
       <c r="E7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="76"/>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="2:14" ht="60" customHeight="1">
+    <row r="8" spans="2:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="48" t="s">
         <v>7</v>
       </c>
@@ -1435,14 +1437,14 @@
       <c r="E8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="2:14" ht="111" customHeight="1">
+    <row r="9" spans="2:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="48" t="s">
         <v>8</v>
       </c>
@@ -1453,14 +1455,14 @@
       <c r="E9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="79"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="2:14" ht="39" customHeight="1">
+    <row r="10" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="48" t="s">
         <v>15</v>
       </c>
@@ -1471,14 +1473,14 @@
       <c r="E10" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="73"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="2:14" ht="50.25" customHeight="1">
+    <row r="11" spans="2:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="48" t="s">
         <v>17</v>
       </c>
@@ -1489,42 +1491,42 @@
       <c r="E11" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="72"/>
-      <c r="H11" s="73"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="2:14" ht="37.5" customHeight="1">
+    <row r="12" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
       <c r="D12" s="26"/>
       <c r="E12" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="2:14" ht="39" customHeight="1">
+    <row r="13" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
       <c r="D13" s="26"/>
       <c r="E13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
       <c r="I13" s="24"/>
     </row>
-    <row r="14" spans="2:14" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
       <c r="D14" s="26"/>
@@ -1534,7 +1536,7 @@
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="2:14" s="29" customFormat="1" ht="15.95" customHeight="1">
+    <row r="15" spans="2:14" s="29" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="39" t="s">
         <v>3</v>
       </c>
@@ -1557,7 +1559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="44" t="s">
         <v>5</v>
       </c>
@@ -1568,14 +1570,14 @@
       <c r="E16" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="77" t="s">
+      <c r="F16" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="79"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="70"/>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="2:12" ht="101.25">
+    <row r="17" spans="2:12" ht="81.599999999999994" x14ac:dyDescent="0.25">
       <c r="B17" s="48" t="s">
         <v>6</v>
       </c>
@@ -1584,12 +1586,12 @@
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="48"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
       <c r="I17" s="24"/>
     </row>
-    <row r="18" spans="2:12" ht="146.25">
+    <row r="18" spans="2:12" ht="132.6" x14ac:dyDescent="0.25">
       <c r="B18" s="48" t="s">
         <v>7</v>
       </c>
@@ -1598,12 +1600,12 @@
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="48"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
       <c r="I18" s="24"/>
     </row>
-    <row r="19" spans="2:12" ht="45">
+    <row r="19" spans="2:12" ht="30.6" x14ac:dyDescent="0.25">
       <c r="B19" s="48" t="s">
         <v>8</v>
       </c>
@@ -1612,12 +1614,12 @@
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="48"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="67"/>
       <c r="I19" s="24"/>
     </row>
-    <row r="20" spans="2:12" ht="56.25">
+    <row r="20" spans="2:12" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="B20" s="48" t="s">
         <v>24</v>
       </c>
@@ -1631,7 +1633,7 @@
       <c r="H20" s="50"/>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="2:12" ht="45">
+    <row r="21" spans="2:12" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="B21" s="64" t="s">
         <v>51</v>
       </c>
@@ -1645,7 +1647,7 @@
       <c r="H21" s="50"/>
       <c r="I21" s="24"/>
     </row>
-    <row r="22" spans="2:12" ht="22.5">
+    <row r="22" spans="2:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="B22" s="48" t="s">
         <v>39</v>
       </c>
@@ -1659,7 +1661,7 @@
       <c r="H22" s="50"/>
       <c r="I22" s="24"/>
     </row>
-    <row r="23" spans="2:12" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
       <c r="D23" s="26"/>
@@ -1669,7 +1671,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
     </row>
-    <row r="24" spans="2:12" s="29" customFormat="1" ht="15.95" customHeight="1">
+    <row r="24" spans="2:12" s="29" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="39" t="s">
         <v>3</v>
       </c>
@@ -1692,7 +1694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="44" t="s">
         <v>5</v>
       </c>
@@ -1703,14 +1705,14 @@
       <c r="E25" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="77" t="s">
+      <c r="F25" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="78"/>
-      <c r="H25" s="79"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="2:12" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="48" t="s">
         <v>6</v>
       </c>
@@ -1719,12 +1721,12 @@
       <c r="E26" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="80"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="82"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="73"/>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="2:12" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="48" t="s">
         <v>7</v>
       </c>
@@ -1733,12 +1735,12 @@
       <c r="E27" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="74"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="2:12" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="48" t="s">
         <v>8</v>
       </c>
@@ -1747,62 +1749,62 @@
       <c r="E28" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="74"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="2:12" ht="17.100000000000001" customHeight="1">
+    <row r="29" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24"/>
     </row>
-    <row r="30" spans="2:12" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="24"/>
     </row>
-    <row r="31" spans="2:12" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="24"/>
     </row>
-    <row r="32" spans="2:12" ht="17.100000000000001" customHeight="1">
+    <row r="32" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="17.100000000000001" customHeight="1">
+    <row r="33" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="59"/>
       <c r="I33" s="60"/>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H34" s="61"/>
       <c r="I34" s="60"/>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H35" s="62"/>
       <c r="I35" s="63"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="54" t="s">
         <v>42</v>
       </c>
@@ -1810,7 +1812,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="56" t="s">
         <v>44</v>
       </c>
@@ -1818,7 +1820,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="67.5">
+    <row r="42" spans="2:9" ht="66" x14ac:dyDescent="0.25">
       <c r="B42" s="57" t="s">
         <v>46</v>
       </c>
@@ -1828,6 +1830,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="F16:H16"/>
@@ -1836,14 +1846,6 @@
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">

--- a/Dokumente/Organisation/Plan �ber Wochenziele UASJ-Maps.xlsx
+++ b/Dokumente/Organisation/Plan �ber Wochenziele UASJ-Maps.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="552" yWindow="120" windowWidth="13620" windowHeight="8256"/>
+    <workbookView xWindow="555" yWindow="120" windowWidth="13620" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Wochenpläne" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="C17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+A3: Funktionen in GO noch nicht vorhanden</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -239,12 +263,6 @@
     </r>
   </si>
   <si>
-    <t>A1: Thomas Multitouch, Singletouch (siehe Ziel3 A1 von GO)
-A2: Ansteuerung GO feritg machen (restliche setFloor()-Befehle umsetzen (Häuser auf Campus)
-A3: David: Singletouch für Campusdarstellung erstellen: Wo wurde gedrückt?
-A4: Menüführung fertig machen</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -266,16 +284,42 @@
 A3: Erstellung Testprogramm Pathfinding (eventuell automatische Tests, die direkt ins Testprotokoll schreiben)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A1: Thomas Multitouch, Singletouch (siehe Ziel3 A1 von GO)
+A2: Ansteuerung GO feritg machen (restliche setFloor()-Befehle umsetzen (Häuser auf Campus)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A3: David: Singletouch für Campusdarstellung erstellen: Wo wurde gedrückt?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+A4: Menüführung fertig machen</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\a\t\um\,\ \k\u\r\z"/>
     <numFmt numFmtId="165" formatCode="\Fes\t"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -886,6 +930,33 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -912,33 +983,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,7 +1067,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -1097,7 +1141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1132,7 +1175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -1308,27 +1350,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:H11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="45.88671875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="45.85546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14" s="2" customFormat="1" ht="43.5" customHeight="1">
       <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
@@ -1342,7 +1384,7 @@
       <c r="H2" s="3"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" ht="21" customHeight="1">
       <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
@@ -1362,7 +1404,7 @@
       </c>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" ht="17.100000000000001" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
@@ -1372,7 +1414,7 @@
       <c r="H4" s="20"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="2:14" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" ht="15.95" customHeight="1">
       <c r="B5" s="39" t="s">
         <v>3</v>
       </c>
@@ -1390,7 +1432,7 @@
       <c r="H5" s="41"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="17.100000000000001" customHeight="1">
       <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
@@ -1401,14 +1443,14 @@
       <c r="E6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="81"/>
-      <c r="H6" s="82"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="73"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="2:14" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="22.5">
       <c r="B7" s="48" t="s">
         <v>6</v>
       </c>
@@ -1419,14 +1461,14 @@
       <c r="E7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="76"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="67"/>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="2:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="60" customHeight="1">
       <c r="B8" s="48" t="s">
         <v>7</v>
       </c>
@@ -1437,14 +1479,14 @@
       <c r="E8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="79"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="70"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="2:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="111" customHeight="1">
       <c r="B9" s="48" t="s">
         <v>8</v>
       </c>
@@ -1455,14 +1497,14 @@
       <c r="E9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="79"/>
+      <c r="F9" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="69"/>
+      <c r="H9" s="70"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="39" customHeight="1">
       <c r="B10" s="48" t="s">
         <v>15</v>
       </c>
@@ -1473,14 +1515,14 @@
       <c r="E10" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="74" t="s">
+      <c r="F10" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="2:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="50.25" customHeight="1">
       <c r="B11" s="48" t="s">
         <v>17</v>
       </c>
@@ -1491,42 +1533,42 @@
       <c r="E11" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="37.5" customHeight="1">
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
       <c r="D12" s="26"/>
       <c r="E12" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="74" t="s">
+      <c r="F12" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="75"/>
-      <c r="H12" s="76"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="39" customHeight="1">
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
       <c r="D13" s="26"/>
       <c r="E13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="77" t="s">
+      <c r="F13" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="24"/>
     </row>
-    <row r="14" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" ht="17.100000000000001" customHeight="1">
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
       <c r="D14" s="26"/>
@@ -1536,7 +1578,7 @@
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="2:14" s="29" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" s="29" customFormat="1" ht="15.95" customHeight="1">
       <c r="B15" s="39" t="s">
         <v>3</v>
       </c>
@@ -1559,7 +1601,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="17.100000000000001" customHeight="1">
       <c r="B16" s="44" t="s">
         <v>5</v>
       </c>
@@ -1570,28 +1612,28 @@
       <c r="E16" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="69"/>
-      <c r="H16" s="70"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="79"/>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="2:12" ht="81.599999999999994" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="101.25">
       <c r="B17" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="48"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="73"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="82"/>
       <c r="I17" s="24"/>
     </row>
-    <row r="18" spans="2:12" ht="132.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="146.25">
       <c r="B18" s="48" t="s">
         <v>7</v>
       </c>
@@ -1600,12 +1642,12 @@
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="48"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="24"/>
     </row>
-    <row r="19" spans="2:12" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="45">
       <c r="B19" s="48" t="s">
         <v>8</v>
       </c>
@@ -1614,12 +1656,12 @@
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="48"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="76"/>
       <c r="I19" s="24"/>
     </row>
-    <row r="20" spans="2:12" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="56.25">
       <c r="B20" s="48" t="s">
         <v>24</v>
       </c>
@@ -1633,7 +1675,7 @@
       <c r="H20" s="50"/>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="2:12" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="45">
       <c r="B21" s="64" t="s">
         <v>51</v>
       </c>
@@ -1647,7 +1689,7 @@
       <c r="H21" s="50"/>
       <c r="I21" s="24"/>
     </row>
-    <row r="22" spans="2:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="22.5">
       <c r="B22" s="48" t="s">
         <v>39</v>
       </c>
@@ -1661,7 +1703,7 @@
       <c r="H22" s="50"/>
       <c r="I22" s="24"/>
     </row>
-    <row r="23" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
       <c r="D23" s="26"/>
@@ -1671,7 +1713,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
     </row>
-    <row r="24" spans="2:12" s="29" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" s="29" customFormat="1" ht="15.95" customHeight="1">
       <c r="B24" s="39" t="s">
         <v>3</v>
       </c>
@@ -1694,7 +1736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B25" s="44" t="s">
         <v>5</v>
       </c>
@@ -1705,14 +1747,14 @@
       <c r="E25" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="69"/>
-      <c r="H25" s="70"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="79"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B26" s="48" t="s">
         <v>6</v>
       </c>
@@ -1721,12 +1763,12 @@
       <c r="E26" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="73"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="82"/>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B27" s="48" t="s">
         <v>7</v>
       </c>
@@ -1735,12 +1777,12 @@
       <c r="E27" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="65"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="67"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="76"/>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B28" s="48" t="s">
         <v>8</v>
       </c>
@@ -1749,62 +1791,62 @@
       <c r="E28" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="65"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="67"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B29" s="24"/>
     </row>
-    <row r="30" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B30" s="24"/>
     </row>
-    <row r="31" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B31" s="24"/>
     </row>
-    <row r="32" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="17.100000000000001" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="59"/>
       <c r="I33" s="60"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9">
       <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H34" s="61"/>
       <c r="I34" s="60"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9">
       <c r="B35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H35" s="62"/>
       <c r="I35" s="63"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9">
       <c r="B36" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9">
       <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9">
       <c r="B40" s="54" t="s">
         <v>42</v>
       </c>
@@ -1812,7 +1854,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9">
       <c r="B41" s="56" t="s">
         <v>44</v>
       </c>
@@ -1820,7 +1862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="67.5">
       <c r="B42" s="57" t="s">
         <v>46</v>
       </c>
@@ -1830,6 +1872,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F19:H19"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
@@ -1838,14 +1888,6 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F19:H19"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">

--- a/Dokumente/Organisation/Plan �ber Wochenziele UASJ-Maps.xlsx
+++ b/Dokumente/Organisation/Plan �ber Wochenziele UASJ-Maps.xlsx
@@ -287,7 +287,25 @@
   <si>
     <r>
       <t xml:space="preserve">A1: Thomas Multitouch, Singletouch (siehe Ziel3 A1 von GO)
-A2: Ansteuerung GO feritg machen (restliche setFloor()-Befehle umsetzen (Häuser auf Campus)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A2: Ansteuerung GO feritg machen (restliche setFloor()-Befehle umsetzen (Häuser auf Campus)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -307,7 +325,16 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-A4: Menüführung fertig machen</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A4: Menüführung fertig machen</t>
     </r>
   </si>
 </sst>
@@ -930,6 +957,33 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -956,33 +1010,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1354,7 +1381,7 @@
   <dimension ref="B2:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F17" sqref="F17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="13.5"/>
@@ -1443,11 +1470,11 @@
       <c r="E6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="73"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
       <c r="I6" s="22"/>
     </row>
     <row r="7" spans="2:14" ht="22.5">
@@ -1461,11 +1488,11 @@
       <c r="E7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="67"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="76"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="2:14" ht="60" customHeight="1">
@@ -1479,11 +1506,11 @@
       <c r="E8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="70"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79"/>
       <c r="I8" s="24"/>
     </row>
     <row r="9" spans="2:14" ht="111" customHeight="1">
@@ -1497,11 +1524,11 @@
       <c r="E9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="70"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="79"/>
       <c r="I9" s="24"/>
     </row>
     <row r="10" spans="2:14" ht="39" customHeight="1">
@@ -1515,11 +1542,11 @@
       <c r="E10" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="24"/>
     </row>
     <row r="11" spans="2:14" ht="50.25" customHeight="1">
@@ -1533,11 +1560,11 @@
       <c r="E11" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="24"/>
     </row>
     <row r="12" spans="2:14" ht="37.5" customHeight="1">
@@ -1547,11 +1574,11 @@
       <c r="E12" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="24"/>
     </row>
     <row r="13" spans="2:14" ht="39" customHeight="1">
@@ -1561,11 +1588,11 @@
       <c r="E13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
       <c r="I13" s="24"/>
     </row>
     <row r="14" spans="2:14" ht="17.100000000000001" customHeight="1">
@@ -1612,11 +1639,11 @@
       <c r="E16" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="77" t="s">
+      <c r="F16" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="79"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="70"/>
       <c r="I16" s="25"/>
     </row>
     <row r="17" spans="2:12" ht="101.25">
@@ -1628,9 +1655,9 @@
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="48"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
       <c r="I17" s="24"/>
     </row>
     <row r="18" spans="2:12" ht="146.25">
@@ -1642,9 +1669,9 @@
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="48"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
       <c r="I18" s="24"/>
     </row>
     <row r="19" spans="2:12" ht="45">
@@ -1656,9 +1683,9 @@
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="48"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="67"/>
       <c r="I19" s="24"/>
     </row>
     <row r="20" spans="2:12" ht="56.25">
@@ -1747,11 +1774,11 @@
       <c r="E25" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="77" t="s">
+      <c r="F25" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="78"/>
-      <c r="H25" s="79"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:12" ht="17.100000000000001" customHeight="1">
@@ -1763,9 +1790,9 @@
       <c r="E26" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="80"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="82"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="73"/>
       <c r="I26" s="24"/>
     </row>
     <row r="27" spans="2:12" ht="17.100000000000001" customHeight="1">
@@ -1777,9 +1804,9 @@
       <c r="E27" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="74"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="24"/>
     </row>
     <row r="28" spans="2:12" ht="17.100000000000001" customHeight="1">
@@ -1791,9 +1818,9 @@
       <c r="E28" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="74"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="24"/>
     </row>
     <row r="29" spans="2:12" ht="17.100000000000001" customHeight="1">
@@ -1872,6 +1899,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="F16:H16"/>
@@ -1880,14 +1915,6 @@
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
